--- a/Normalization Assignment.xlsx
+++ b/Normalization Assignment.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24302"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BB079CB-0C30-47E1-BBED-A930AE2A7EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9CBFED-0DA9-470F-AAB1-7045A006DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnNormalized" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="53">
   <si>
     <t>DATABASE OF PLAYERS FOR A FOOTBALL LEAGUE's FANTASY TEAM TOURNEY</t>
   </si>
@@ -192,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +232,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -546,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -554,7 +562,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,7 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -596,8 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,9 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,16 +649,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1003,14 +1008,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="6"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1022,10 +1027,10 @@
     <row r="3" spans="2:22">
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
     </row>
     <row r="4" spans="2:22">
       <c r="B4" t="s">
@@ -1037,31 +1042,31 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="1"/>
@@ -1070,31 +1075,31 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>101</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>5684</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>1</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>9</v>
       </c>
       <c r="K6" s="1"/>
@@ -1103,25 +1108,25 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="12"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="34">
+      <c r="E7" s="30">
         <v>9542</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>3</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>6</v>
       </c>
       <c r="K7" s="1"/>
@@ -1130,25 +1135,25 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="34">
+      <c r="E8" s="30">
         <v>5521</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>2</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>7</v>
       </c>
       <c r="K8" s="1"/>
@@ -1157,31 +1162,31 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>102</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="36">
         <v>8167</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="34">
         <v>1</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="37">
         <v>8</v>
       </c>
       <c r="K9" s="1"/>
@@ -1190,25 +1195,25 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2374</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>5</v>
       </c>
       <c r="K10" s="1"/>
@@ -1216,25 +1221,25 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>4687</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>2</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>6</v>
       </c>
       <c r="K11" s="1"/>
@@ -1242,31 +1247,31 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="37">
+      <c r="B12" s="33">
         <v>103</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <v>4444</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="34">
         <v>1</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="37">
         <v>10</v>
       </c>
       <c r="K12" s="1"/>
@@ -1274,25 +1279,25 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>4583</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>2</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>9</v>
       </c>
       <c r="K13" s="1"/>
@@ -1300,25 +1305,25 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2796</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <v>2</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>7</v>
       </c>
       <c r="K14" s="1"/>
@@ -1326,31 +1331,31 @@
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="37">
+      <c r="B15" s="33">
         <v>104</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>3185</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>7</v>
       </c>
       <c r="K15" s="1"/>
@@ -1358,25 +1363,25 @@
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>2456</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <v>3</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>6</v>
       </c>
       <c r="K16" s="1"/>
@@ -1384,25 +1389,25 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>4583</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>2</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>7</v>
       </c>
       <c r="K17" s="1"/>
@@ -1410,31 +1415,31 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="37">
+      <c r="B18" s="33">
         <v>105</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>6873</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="34">
         <v>4</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="37">
         <v>6</v>
       </c>
       <c r="K18" s="1"/>
@@ -1442,455 +1447,455 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="12"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>9542</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>3</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>9</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="30">
+      <c r="E20" s="28">
         <v>5521</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>2</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>8</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>106</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>3185</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>4</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>7</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="12"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>2374</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>3</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>6</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>4687</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>2</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>5</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>107</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>3185</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>4</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>6</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="12"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>6842</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>3</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>8</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>4583</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="17">
         <v>2</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>7</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>108</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>4444</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>1</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>8</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="12"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>8251</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>3</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>6</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>4587</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>2</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>5</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>109</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>5684</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>1</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>7</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="12"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>2374</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>3</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>6</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>9542</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <v>3</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>9</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>110</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>9999</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>1</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <v>5</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="12"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>6842</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>1</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>7</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="35">
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="31">
         <v>4687</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>2</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="23">
         <v>5</v>
       </c>
       <c r="K35" s="1"/>
@@ -1945,79 +1950,79 @@
     <row r="50" spans="10:18">
       <c r="J50" s="5"/>
       <c r="M50" s="1"/>
-      <c r="Q50" s="8"/>
+      <c r="Q50" s="7"/>
     </row>
     <row r="51" spans="10:18">
       <c r="J51" s="5"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="8"/>
+      <c r="N51" s="7"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="29"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="27"/>
     </row>
     <row r="52" spans="10:18">
       <c r="J52" s="5"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="8"/>
+      <c r="N52" s="7"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="29"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="27"/>
     </row>
     <row r="53" spans="10:18">
       <c r="J53" s="5"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="8"/>
+      <c r="N53" s="7"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="29"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="27"/>
     </row>
     <row r="54" spans="10:18">
       <c r="J54" s="5"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="8"/>
+      <c r="N54" s="7"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="29"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="27"/>
     </row>
     <row r="55" spans="10:18">
       <c r="J55" s="5"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="8"/>
+      <c r="N55" s="7"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="29"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="27"/>
     </row>
     <row r="56" spans="10:18">
       <c r="J56" s="4"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="8"/>
+      <c r="N56" s="7"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="29"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="27"/>
     </row>
     <row r="57" spans="10:18">
       <c r="J57" s="4"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="8"/>
+      <c r="N57" s="7"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="29"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="27"/>
     </row>
     <row r="58" spans="10:18">
       <c r="J58" s="4"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="8"/>
+      <c r="N58" s="7"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="29"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2029,7 +2034,7 @@
   <dimension ref="B2:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:P5"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2055,787 +2060,769 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="3:19">
-      <c r="C6" s="43">
+      <c r="C6" s="39">
         <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="39">
         <v>5684</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="39">
         <v>101</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="21">
         <v>9</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="51">
+      <c r="P6" s="46">
         <v>2</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="39">
         <v>1</v>
       </c>
-      <c r="S6" s="46" t="s">
+      <c r="S6" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="43">
+      <c r="C7" s="39">
         <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="39">
         <v>9542</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="39">
         <v>101</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="21">
         <v>6</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="42">
         <v>3</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="39">
         <v>2</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="42" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="39">
         <v>5521</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="39">
         <v>101</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <v>7</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="42">
         <v>3</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="39">
         <v>3</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="43">
+      <c r="C9" s="39">
         <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="39">
         <v>2456</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="41">
         <v>101</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="42">
         <v>4</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="40">
         <v>4</v>
       </c>
-      <c r="S9" s="47" t="s">
+      <c r="S9" s="43" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="43">
+      <c r="C10" s="39">
         <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="39">
         <v>8167</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="39">
         <v>102</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <v>8</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="43">
+      <c r="C11" s="39">
         <v>106</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="39">
         <v>2374</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="39">
         <v>102</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="21">
         <v>5</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="39">
         <v>4687</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="39">
         <v>102</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="39">
         <v>4444</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="41">
         <v>102</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="39">
         <v>4583</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="39">
         <v>103</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="21">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="44">
+      <c r="C15" s="40">
         <v>110</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="39">
         <v>2796</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="39">
         <v>103</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="21">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:19">
-      <c r="G16" s="43">
+      <c r="G16" s="39">
         <v>3185</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="46" t="s">
+      <c r="I16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="39">
         <v>103</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="7:13">
-      <c r="G17" s="43">
+      <c r="G17" s="39">
         <v>8251</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="7:13">
-      <c r="G18" s="43">
+      <c r="G18" s="39">
         <v>6842</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="46" t="s">
+      <c r="I18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="39">
         <v>104</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="7:13">
-      <c r="G19" s="44">
+      <c r="G19" s="40">
         <v>6873</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="39">
         <v>104</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="7:13">
       <c r="G20" s="1"/>
-      <c r="K20" s="43">
+      <c r="K20" s="39">
         <v>104</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="7:13">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="8"/>
-      <c r="K21" s="45" t="s">
+      <c r="I21" s="7"/>
+      <c r="K21" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="7:13">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="8"/>
-      <c r="K22" s="43">
+      <c r="I22" s="7"/>
+      <c r="K22" s="39">
         <v>105</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="7:13">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="8"/>
-      <c r="K23" s="45" t="s">
+      <c r="I23" s="7"/>
+      <c r="K23" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="7:13">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="8"/>
-      <c r="K24" s="43">
+      <c r="I24" s="7"/>
+      <c r="K24" s="39">
         <v>106</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="7:13">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
-      <c r="K25" s="45" t="s">
+      <c r="I25" s="7"/>
+      <c r="K25" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="7:13">
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
-      <c r="K26" s="43">
+      <c r="I26" s="7"/>
+      <c r="K26" s="39">
         <v>107</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="7:13">
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
-      <c r="K27" s="45" t="s">
+      <c r="I27" s="7"/>
+      <c r="K27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="7:13">
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="8"/>
-      <c r="K28" s="43">
+      <c r="I28" s="7"/>
+      <c r="K28" s="39">
         <v>108</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="7:13">
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="7:13">
-      <c r="K30" s="43">
+      <c r="K30" s="39">
         <v>109</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="7:13">
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="7:13">
-      <c r="K32" s="43">
+      <c r="K32" s="39">
         <v>110</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="1"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="2:14">
       <c r="B38" s="1"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="7"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="29"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="27"/>
     </row>
     <row r="39" spans="2:14">
       <c r="B39" s="1"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="7"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="29"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="27"/>
     </row>
     <row r="40" spans="2:14">
       <c r="B40" s="1"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="2:14">
       <c r="B41" s="1"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="1"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="2:14">
       <c r="B43" s="1"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="29"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="2:14">
       <c r="B44" s="1"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="29"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="2:14">
       <c r="B45" s="1"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="29"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="2:14">
       <c r="B46" s="1"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="29"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="1"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="29"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="2:14">
       <c r="B48" s="1"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="29"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="1"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="29"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="1"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="29"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="1"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="29"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="1"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="1"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="32">
-        <v>1</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>15</v>
-      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="1"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="12">
-        <v>2</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="1"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="12">
-        <v>3</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>18</v>
-      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="1"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="13">
-        <v>4</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>37</v>
-      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="1"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Normalization Assignment.xlsx
+++ b/Normalization Assignment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24302"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9CBFED-0DA9-470F-AAB1-7045A006DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BFB52EA-28FF-479D-B718-C59F7587B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="58">
   <si>
     <t>DATABASE OF PLAYERS FOR A FOOTBALL LEAGUE's FANTASY TEAM TOURNEY</t>
   </si>
@@ -176,6 +176,18 @@
     <t>NORMALIZED TABLES</t>
   </si>
   <si>
+    <t>Set of Players</t>
+  </si>
+  <si>
+    <t>Set of Users</t>
+  </si>
+  <si>
+    <t>Scores of eachplayer with all possible club combos</t>
+  </si>
+  <si>
+    <t>Real-life clubs and league ids</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -183,6 +195,9 @@
   </si>
   <si>
     <t>....</t>
+  </si>
+  <si>
+    <t>etc</t>
   </si>
   <si>
     <t>..</t>
@@ -554,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -663,6 +678,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2031,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C495405-DEB2-4F8E-8020-A3AB2B8FFA43}">
-  <dimension ref="B2:S57"/>
+  <dimension ref="B2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2042,29 +2060,42 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
     <col min="19" max="19" width="14.5703125" customWidth="1"/>
     <col min="20" max="20" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="2" spans="3:17">
       <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="3:19">
-      <c r="G4" s="1"/>
+    <row r="4" spans="3:17">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="3:19">
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17">
       <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>4</v>
@@ -2087,20 +2118,14 @@
       <c r="M5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="P5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="Q5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19">
+    </row>
+    <row r="6" spans="3:17">
       <c r="C6" s="39">
         <v>101</v>
       </c>
@@ -2128,20 +2153,14 @@
       <c r="M6" s="21">
         <v>9</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="P6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="46">
+      <c r="Q6" s="46">
         <v>2</v>
       </c>
-      <c r="R6" s="39">
-        <v>1</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19">
+    </row>
+    <row r="7" spans="3:17">
       <c r="C7" s="39">
         <v>102</v>
       </c>
@@ -2169,20 +2188,14 @@
       <c r="M7" s="21">
         <v>6</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="P7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="42">
+      <c r="Q7" s="42">
         <v>3</v>
       </c>
-      <c r="R7" s="39">
-        <v>2</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19">
+    </row>
+    <row r="8" spans="3:17">
       <c r="C8" s="39">
         <v>103</v>
       </c>
@@ -2210,20 +2223,14 @@
       <c r="M8" s="21">
         <v>7</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="P8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="42">
+      <c r="Q8" s="42">
         <v>3</v>
       </c>
-      <c r="R8" s="39">
-        <v>3</v>
-      </c>
-      <c r="S8" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:19">
+    </row>
+    <row r="9" spans="3:17">
       <c r="C9" s="39">
         <v>104</v>
       </c>
@@ -2246,25 +2253,19 @@
         <v>101</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="42">
+      <c r="Q9" s="42">
         <v>4</v>
       </c>
-      <c r="R9" s="40">
-        <v>4</v>
-      </c>
-      <c r="S9" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19">
+    </row>
+    <row r="10" spans="3:17">
       <c r="C10" s="39">
         <v>105</v>
       </c>
@@ -2292,14 +2293,14 @@
       <c r="M10" s="21">
         <v>8</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="P10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="42">
+      <c r="Q10" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:19">
+    <row r="11" spans="3:17">
       <c r="C11" s="39">
         <v>106</v>
       </c>
@@ -2327,14 +2328,14 @@
       <c r="M11" s="21">
         <v>5</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="P11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="43">
+      <c r="Q11" s="43">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:19">
+    <row r="12" spans="3:17">
       <c r="C12" s="39">
         <v>107</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="3:19">
+    <row r="13" spans="3:17">
       <c r="C13" s="39">
         <v>108</v>
       </c>
@@ -2386,13 +2387,13 @@
         <v>102</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="3:19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
       <c r="C14" s="39">
         <v>109</v>
       </c>
@@ -2420,8 +2421,14 @@
       <c r="M14" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="3:19">
+      <c r="P14" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17">
       <c r="C15" s="40">
         <v>110</v>
       </c>
@@ -2449,8 +2456,14 @@
       <c r="M15" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="3:19">
+      <c r="P15" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17">
       <c r="G16" s="39">
         <v>3185</v>
       </c>
@@ -2469,8 +2482,14 @@
       <c r="M16" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="7:13">
+      <c r="P16" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17">
       <c r="G17" s="39">
         <v>8251</v>
       </c>
@@ -2481,16 +2500,22 @@
         <v>26</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="7:13">
+        <v>54</v>
+      </c>
+      <c r="P17" s="39">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17">
       <c r="G18" s="39">
         <v>6842</v>
       </c>
@@ -2509,8 +2534,14 @@
       <c r="M18" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="7:13">
+      <c r="P18" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17">
       <c r="G19" s="40">
         <v>6873</v>
       </c>
@@ -2530,8 +2561,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="7:13">
-      <c r="G20" s="1"/>
+    <row r="20" spans="7:17">
+      <c r="G20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>54</v>
+      </c>
       <c r="K20" s="39">
         <v>104</v>
       </c>
@@ -2542,21 +2581,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="7:13">
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="7"/>
+    <row r="21" spans="7:17">
+      <c r="G21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="K21" s="41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="7:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="7"/>
@@ -2570,21 +2615,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="7:13">
+    <row r="23" spans="7:17">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="7"/>
       <c r="K23" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="7:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -2598,21 +2643,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="7:13">
+    <row r="25" spans="7:17">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="7"/>
       <c r="K25" s="41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="7:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="7:17">
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="7"/>
@@ -2626,21 +2671,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="7:13">
+    <row r="27" spans="7:17">
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="7"/>
       <c r="K27" s="41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="7:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="7:17">
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="7"/>
@@ -2654,18 +2699,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="7:13">
+    <row r="29" spans="7:17">
       <c r="K29" s="41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="7:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17">
       <c r="K30" s="39">
         <v>109</v>
       </c>
@@ -2676,18 +2721,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="7:13">
+    <row r="31" spans="7:17">
       <c r="K31" s="41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="7:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="7:17">
       <c r="K32" s="39">
         <v>110</v>
       </c>
@@ -2700,13 +2745,13 @@
     </row>
     <row r="33" spans="2:14">
       <c r="K33" s="40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:14">
